--- a/HT-4/Optica BAC-02-Portafolio de servicios.xlsx
+++ b/HT-4/Optica BAC-02-Portafolio de servicios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca42e1a7130a379e/Uniandes/Quinto Semestre/Arqui Emp/Hojas de trabajo/^N3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{BCE81F46-231A-4C21-ABAE-8B2642802A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F32509F-23E6-43B7-809D-137625C0F789}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEDA53E-4D43-F04F-AF69-3FFFAE91F93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-02" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Nombre</t>
   </si>
@@ -69,42 +69,6 @@
     <t>S3</t>
   </si>
   <si>
-    <t>Cliente Online</t>
-  </si>
-  <si>
-    <t>Reservar</t>
-  </si>
-  <si>
-    <t>Entra a la página de booking a reservar un bien o servicio</t>
-  </si>
-  <si>
-    <t>Servicio</t>
-  </si>
-  <si>
-    <t>Propietaro particular</t>
-  </si>
-  <si>
-    <t>Publicar en la plataforma</t>
-  </si>
-  <si>
-    <t>Plataforma</t>
-  </si>
-  <si>
-    <t>Estadía en hotel</t>
-  </si>
-  <si>
-    <t>Reserva de vuelo</t>
-  </si>
-  <si>
-    <t>Alquiler de un vehículo</t>
-  </si>
-  <si>
-    <t>Reservar un taxi</t>
-  </si>
-  <si>
-    <t>Reserva de atraccciones turísticas</t>
-  </si>
-  <si>
     <t>S4</t>
   </si>
   <si>
@@ -117,37 +81,16 @@
     <t>S7</t>
   </si>
   <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>Aerolínea</t>
-  </si>
-  <si>
-    <t>Empresa de alquiler de carros</t>
-  </si>
-  <si>
-    <t>Empresa de turismo</t>
-  </si>
-  <si>
-    <t>El propietario publica una propiedad que el cliente online puede alquilar desde la plataforma</t>
-  </si>
-  <si>
-    <t>El hotel ofrece planes de hospedaje a través de la plataforma web a cambio de ceder un porcentaje de las ganancias obtenidas por reservas en la página</t>
-  </si>
-  <si>
-    <t>La aerolínea proporciona servicio de transporte aéreo comercial y cede una parte por las reservas hechas a través de la plataforma</t>
-  </si>
-  <si>
-    <t>Compañía de taxis</t>
-  </si>
-  <si>
-    <t>La empresa ofrece un catálogo de automóviles para ser alquilados a través del portal web. Cede una parte de las ganancias generadas por alquileres a través de la página web</t>
-  </si>
-  <si>
-    <t>La organización ofrece servicio de taxi a través de la plataforma web y le paga a Booking por las reservas hechas a través de su plataforma</t>
-  </si>
-  <si>
-    <t>La empresa de turismo expone las ofertas que tiene para visitar distintas atracciones turísticas a través de la plataforma de Booking y le paga un porcentaje de las reservas hechas a través de esta</t>
+    <t>Venta de monturas</t>
+  </si>
+  <si>
+    <t>Venta de lentes</t>
+  </si>
+  <si>
+    <t>Reparación de monturas y lentes</t>
+  </si>
+  <si>
+    <t>Exámen visual</t>
   </si>
 </sst>
 </file>
@@ -216,11 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -230,7 +172,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,7 +190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -545,186 +486,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="5" width="20.58203125" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="56" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="56" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="56" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="70" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HT-4/Optica BAC-02-Portafolio de servicios.xlsx
+++ b/HT-4/Optica BAC-02-Portafolio de servicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEDA53E-4D43-F04F-AF69-3FFFAE91F93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C172909-DABC-174D-8D95-1485F6F53257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Nombre</t>
   </si>
@@ -72,15 +72,6 @@
     <t>S4</t>
   </si>
   <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
     <t>Venta de monturas</t>
   </si>
   <si>
@@ -91,6 +82,33 @@
   </si>
   <si>
     <t>Exámen visual</t>
+  </si>
+  <si>
+    <t>Vender lentes bajo una fórmula o con modificaciones específicas (ej: lentes transition o de sol)</t>
+  </si>
+  <si>
+    <t>Vender monturas en variedad. El cliente tiene la opción de pagarlos utilizando cualquier método de pago.</t>
+  </si>
+  <si>
+    <t>El cliente puede reparar cualquier tipo de daño físico en sus lentes o monturas.</t>
+  </si>
+  <si>
+    <t>Ofrecer el servicio de examen visual que le permite al cliente saber el aumento necesario para mejorar su vista</t>
+  </si>
+  <si>
+    <t>Comprador</t>
+  </si>
+  <si>
+    <t>Cliente reparación</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Producto físico</t>
+  </si>
+  <si>
+    <t>Servicio</t>
   </si>
 </sst>
 </file>
@@ -132,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,11 +173,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -171,6 +198,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,7 +528,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -534,76 +573,94 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HT-4/Optica BAC-02-Portafolio de servicios.xlsx
+++ b/HT-4/Optica BAC-02-Portafolio de servicios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C172909-DABC-174D-8D95-1485F6F53257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012659D4-E79C-41E7-B8D5-757AB48E8DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-02" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Nombre</t>
   </si>
@@ -96,12 +96,6 @@
     <t>Ofrecer el servicio de examen visual que le permite al cliente saber el aumento necesario para mejorar su vista</t>
   </si>
   <si>
-    <t>Comprador</t>
-  </si>
-  <si>
-    <t>Cliente reparación</t>
-  </si>
-  <si>
     <t>Paciente</t>
   </si>
   <si>
@@ -109,6 +103,9 @@
   </si>
   <si>
     <t>Servicio</t>
+  </si>
+  <si>
+    <t>Cliente</t>
   </si>
 </sst>
 </file>
@@ -205,10 +202,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -229,7 +226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -528,35 +525,35 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -573,7 +570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -584,13 +581,13 @@
         <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -601,13 +598,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -618,13 +615,13 @@
         <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -635,27 +632,27 @@
         <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>

--- a/HT-4/Optica BAC-02-Portafolio de servicios.xlsx
+++ b/HT-4/Optica BAC-02-Portafolio de servicios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012659D4-E79C-41E7-B8D5-757AB48E8DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA94D911-2876-F44D-AF6C-4FFBD9DDFF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="-120" yWindow="500" windowWidth="19420" windowHeight="11060" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-02" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -528,32 +528,32 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -604,7 +604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -621,7 +621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -638,21 +638,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
